--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dariashapira/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D810431F-51AA-B74C-9D9C-2A95D1FB7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="473">
   <si>
     <t>judits_naming</t>
   </si>
@@ -1435,12 +1436,36 @@
   <si>
     <t>Microfilm only, bad quality</t>
   </si>
+  <si>
+    <t>script type</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>BNF Hébreu 36</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>F?</t>
+  </si>
+  <si>
+    <t>G?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1578,6 +1603,37 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1617,27 +1673,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1645,15 +1699,15 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1661,6 +1715,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1877,29 +1938,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B220" sqref="B220"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="70.85546875" customWidth="1"/>
+    <col min="7" max="7" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,8 +1982,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1940,8 +2004,11 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13">
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +2016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" ht="13">
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1957,7 +2024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" ht="13">
       <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +2032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" ht="16">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13">
       <c r="F7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1994,7 +2064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" ht="13">
       <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2002,7 +2072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" ht="13">
       <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +2080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" ht="16">
       <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
@@ -2032,8 +2102,11 @@
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13">
       <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
@@ -2041,7 +2114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" ht="13">
       <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2049,7 +2122,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" ht="13">
       <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
@@ -2057,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" ht="16">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2070,8 +2143,11 @@
       <c r="G14" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13">
       <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" ht="13">
       <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2087,7 +2163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8" ht="13">
       <c r="F17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2095,7 +2171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -2111,8 +2187,11 @@
       <c r="G18" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13">
       <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
@@ -2120,7 +2199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8" ht="13">
       <c r="F20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2128,7 +2207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8" ht="13">
       <c r="F21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2136,7 +2215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="10" t="s">
         <v>61</v>
       </c>
@@ -2152,8 +2231,11 @@
       <c r="G22" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13">
       <c r="F23" s="1" t="s">
         <v>66</v>
       </c>
@@ -2161,7 +2243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8" ht="13">
       <c r="F24" s="1" t="s">
         <v>68</v>
       </c>
@@ -2169,7 +2251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8" ht="13">
       <c r="F25" s="1" t="s">
         <v>70</v>
       </c>
@@ -2177,7 +2259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
@@ -2196,8 +2278,11 @@
       <c r="G26" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13">
       <c r="F27" s="1" t="s">
         <v>77</v>
       </c>
@@ -2205,7 +2290,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8" ht="13">
       <c r="F28" s="1" t="s">
         <v>79</v>
       </c>
@@ -2213,7 +2298,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8" ht="13">
       <c r="F29" s="1" t="s">
         <v>81</v>
       </c>
@@ -2221,7 +2306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -2243,8 +2328,11 @@
       <c r="G30" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13">
       <c r="F31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2252,7 +2340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8" ht="13">
       <c r="F32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2260,7 +2348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" ht="13">
       <c r="F33" s="1" t="s">
         <v>92</v>
       </c>
@@ -2268,7 +2356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="10" t="s">
         <v>94</v>
       </c>
@@ -2287,8 +2375,11 @@
       <c r="G34" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13">
       <c r="F35" s="1" t="s">
         <v>99</v>
       </c>
@@ -2296,7 +2387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" ht="13">
       <c r="F36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2304,7 +2395,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8" ht="13">
       <c r="F37" s="1" t="s">
         <v>103</v>
       </c>
@@ -2312,7 +2403,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" ht="16">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -2331,8 +2422,11 @@
       <c r="G38" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13">
       <c r="F39" s="1" t="s">
         <v>110</v>
       </c>
@@ -2340,7 +2434,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8" ht="13">
       <c r="F40" s="1" t="s">
         <v>112</v>
       </c>
@@ -2348,7 +2442,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8" ht="13">
       <c r="F41" s="1" t="s">
         <v>114</v>
       </c>
@@ -2356,7 +2450,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="2" t="s">
         <v>116</v>
       </c>
@@ -2366,7 +2460,7 @@
       <c r="C42" s="1">
         <v>1299</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>118</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -2375,8 +2469,11 @@
       <c r="G42" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13">
       <c r="F43" s="1" t="s">
         <v>110</v>
       </c>
@@ -2384,7 +2481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8" ht="13">
       <c r="F44" s="1" t="s">
         <v>108</v>
       </c>
@@ -2392,7 +2489,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8" ht="13">
       <c r="F45" s="1" t="s">
         <v>112</v>
       </c>
@@ -2400,7 +2497,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" ht="16">
       <c r="A46" s="2" t="s">
         <v>124</v>
       </c>
@@ -2416,8 +2513,11 @@
       <c r="G46" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13">
       <c r="F47" s="1" t="s">
         <v>129</v>
       </c>
@@ -2425,7 +2525,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8" ht="13">
       <c r="F48" s="1" t="s">
         <v>131</v>
       </c>
@@ -2433,7 +2533,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8" ht="13">
       <c r="F49" s="1" t="s">
         <v>133</v>
       </c>
@@ -2441,14 +2541,14 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8" ht="16">
       <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2460,8 +2560,11 @@
       <c r="G50" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13">
       <c r="F51" s="1" t="s">
         <v>55</v>
       </c>
@@ -2469,7 +2572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8" ht="13">
       <c r="F52" s="1" t="s">
         <v>59</v>
       </c>
@@ -2477,7 +2580,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" ht="13">
       <c r="F53" s="1" t="s">
         <v>88</v>
       </c>
@@ -2485,14 +2588,14 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8" ht="16">
       <c r="A54" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -2504,8 +2607,11 @@
       <c r="G54" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13">
       <c r="F55" s="1" t="s">
         <v>112</v>
       </c>
@@ -2513,7 +2619,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8" ht="13">
       <c r="F56" s="1" t="s">
         <v>108</v>
       </c>
@@ -2521,7 +2627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" ht="13">
       <c r="F57" s="1" t="s">
         <v>110</v>
       </c>
@@ -2529,14 +2635,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8" ht="16">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -2545,8 +2651,11 @@
       <c r="G58" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13">
       <c r="F59" s="1" t="s">
         <v>20</v>
       </c>
@@ -2554,7 +2663,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8" ht="13">
       <c r="F60" s="1" t="s">
         <v>22</v>
       </c>
@@ -2562,7 +2671,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8" ht="13">
       <c r="F61" s="1" t="s">
         <v>155</v>
       </c>
@@ -2570,14 +2679,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8" ht="16">
       <c r="A62" s="10" t="s">
         <v>157</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F62" s="1" t="s">
@@ -2586,8 +2695,11 @@
       <c r="G62" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13">
       <c r="F63" s="1" t="s">
         <v>59</v>
       </c>
@@ -2595,7 +2707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8" ht="13">
       <c r="F64" s="1" t="s">
         <v>88</v>
       </c>
@@ -2603,7 +2715,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8" ht="13">
       <c r="F65" s="1" t="s">
         <v>90</v>
       </c>
@@ -2611,8 +2723,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="13" t="s">
+    <row r="66" spans="1:8" ht="13">
+      <c r="A66" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B66" s="8" t="s">
@@ -2630,8 +2742,11 @@
       <c r="G66" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13">
       <c r="F67" s="1" t="s">
         <v>119</v>
       </c>
@@ -2639,7 +2754,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8" ht="13">
       <c r="F68" s="1" t="s">
         <v>167</v>
       </c>
@@ -2647,7 +2762,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8" ht="13">
       <c r="F69" s="1" t="s">
         <v>20</v>
       </c>
@@ -2655,14 +2770,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="13" t="s">
+    <row r="70" spans="1:8" ht="14">
+      <c r="A70" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>172</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -2674,8 +2789,11 @@
       <c r="G70" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13">
       <c r="F71" s="1" t="s">
         <v>36</v>
       </c>
@@ -2683,7 +2801,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8" ht="13">
       <c r="F72" s="1" t="s">
         <v>175</v>
       </c>
@@ -2691,7 +2809,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8" ht="13">
       <c r="F73" s="1" t="s">
         <v>177</v>
       </c>
@@ -2699,14 +2817,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="13" t="s">
+    <row r="74" spans="1:8" ht="14">
+      <c r="A74" s="12" t="s">
         <v>179</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>181</v>
       </c>
       <c r="F74" s="1" t="s">
@@ -2715,8 +2833,11 @@
       <c r="G74" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="13">
       <c r="F75" s="1" t="s">
         <v>112</v>
       </c>
@@ -2724,7 +2845,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8" ht="13">
       <c r="F76" s="1" t="s">
         <v>108</v>
       </c>
@@ -2732,7 +2853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8" ht="13">
       <c r="F77" s="1" t="s">
         <v>110</v>
       </c>
@@ -2740,14 +2861,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="13" t="s">
+    <row r="78" spans="1:8" ht="14">
+      <c r="A78" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>188</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -2756,8 +2877,11 @@
       <c r="G78" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13">
       <c r="F79" s="1" t="s">
         <v>70</v>
       </c>
@@ -2765,7 +2889,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8" ht="13">
       <c r="F80" s="1" t="s">
         <v>68</v>
       </c>
@@ -2773,7 +2897,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8" ht="13">
       <c r="F81" s="1" t="s">
         <v>66</v>
       </c>
@@ -2781,8 +2905,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="13" t="s">
+    <row r="82" spans="1:8" ht="16">
+      <c r="A82" s="12" t="s">
         <v>194</v>
       </c>
       <c r="B82" s="8" t="s">
@@ -2800,8 +2924,11 @@
       <c r="G82" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="13">
       <c r="F83" s="1" t="s">
         <v>198</v>
       </c>
@@ -2809,7 +2936,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8" ht="13">
       <c r="F84" s="1" t="s">
         <v>114</v>
       </c>
@@ -2817,7 +2944,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8" ht="13">
       <c r="F85" s="1" t="s">
         <v>112</v>
       </c>
@@ -2825,8 +2952,8 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="13" t="s">
+    <row r="86" spans="1:8" ht="16">
+      <c r="A86" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -2841,8 +2968,11 @@
       <c r="G86" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="13">
       <c r="F87" s="1" t="s">
         <v>206</v>
       </c>
@@ -2850,7 +2980,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8" ht="13">
       <c r="F88" s="1" t="s">
         <v>208</v>
       </c>
@@ -2858,7 +2988,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8" ht="13">
       <c r="F89" s="1" t="s">
         <v>210</v>
       </c>
@@ -2866,8 +2996,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:8" ht="16">
+      <c r="A90" s="12" t="s">
         <v>212</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -2882,8 +3012,11 @@
       <c r="G90" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="13">
       <c r="F91" s="1" t="s">
         <v>112</v>
       </c>
@@ -2891,7 +3024,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8" ht="13">
       <c r="F92" s="1" t="s">
         <v>108</v>
       </c>
@@ -2899,7 +3032,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8" ht="13">
       <c r="F93" s="1" t="s">
         <v>110</v>
       </c>
@@ -2907,8 +3040,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="13" t="s">
+    <row r="94" spans="1:8" ht="16">
+      <c r="A94" s="12" t="s">
         <v>218</v>
       </c>
       <c r="B94" s="8" t="s">
@@ -2926,8 +3059,11 @@
       <c r="G94" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" s="31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13">
       <c r="F95" s="1" t="s">
         <v>198</v>
       </c>
@@ -2935,7 +3071,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8" ht="13">
       <c r="F96" s="1" t="s">
         <v>114</v>
       </c>
@@ -2943,7 +3079,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8" ht="13">
       <c r="F97" s="1" t="s">
         <v>112</v>
       </c>
@@ -2951,8 +3087,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="13" t="s">
+    <row r="98" spans="1:8" ht="16">
+      <c r="A98" s="12" t="s">
         <v>226</v>
       </c>
       <c r="B98" s="8" t="s">
@@ -2970,8 +3106,11 @@
       <c r="G98" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="13">
       <c r="F99" s="1" t="s">
         <v>90</v>
       </c>
@@ -2979,7 +3118,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8" ht="13">
       <c r="F100" s="1" t="s">
         <v>92</v>
       </c>
@@ -2987,7 +3126,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8" ht="13">
       <c r="F101" s="1" t="s">
         <v>231</v>
       </c>
@@ -2995,11 +3134,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="13" t="s">
+    <row r="102" spans="1:8" ht="16">
+      <c r="A102" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>233</v>
       </c>
       <c r="C102" s="1">
@@ -3008,20 +3147,23 @@
       <c r="G102" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="15" t="s">
+      <c r="H102" s="29" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16">
+      <c r="A103" s="14" t="s">
         <v>235</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="13" t="s">
+    <row r="104" spans="1:8" ht="16">
+      <c r="A104" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="15" t="s">
         <v>238</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -3036,8 +3178,11 @@
       <c r="G104" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="13">
       <c r="F105" s="1" t="s">
         <v>242</v>
       </c>
@@ -3045,7 +3190,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8" ht="13">
       <c r="F106" s="1" t="s">
         <v>244</v>
       </c>
@@ -3053,7 +3198,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8" ht="13">
       <c r="F107" s="1" t="s">
         <v>246</v>
       </c>
@@ -3061,8 +3206,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:8" ht="16">
+      <c r="A108" s="12" t="s">
         <v>248</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -3077,8 +3222,11 @@
       <c r="G108" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="13">
       <c r="F109" s="1" t="s">
         <v>253</v>
       </c>
@@ -3086,7 +3234,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8" ht="13">
       <c r="F110" s="1" t="s">
         <v>253</v>
       </c>
@@ -3094,7 +3242,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8" ht="13">
       <c r="F111" s="1" t="s">
         <v>255</v>
       </c>
@@ -3102,14 +3250,14 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A112" s="13" t="s">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A112" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="16" t="s">
         <v>259</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -3124,9 +3272,12 @@
       <c r="G112" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B113" s="18"/>
+      <c r="H112" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
+      <c r="B113" s="16"/>
       <c r="F113" s="1" t="s">
         <v>59</v>
       </c>
@@ -3134,7 +3285,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8" ht="13">
       <c r="F114" s="1" t="s">
         <v>88</v>
       </c>
@@ -3142,7 +3293,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8" ht="13">
       <c r="F115" s="1" t="s">
         <v>90</v>
       </c>
@@ -3150,11 +3301,11 @@
         <v>264</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8" ht="16">
       <c r="A116" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="15" t="s">
         <v>266</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3170,7 +3321,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8" ht="13">
       <c r="F117" s="1" t="s">
         <v>270</v>
       </c>
@@ -3178,7 +3329,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8" ht="13">
       <c r="F118" s="1" t="s">
         <v>272</v>
       </c>
@@ -3186,7 +3337,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8" ht="13">
       <c r="F119" s="1" t="s">
         <v>274</v>
       </c>
@@ -3194,41 +3345,47 @@
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C121" s="19">
+      <c r="C121" s="17">
         <v>1260</v>
       </c>
       <c r="D121" s="1"/>
       <c r="G121" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H121" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B122" s="17" t="s">
+      <c r="B122" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C122" s="19">
+      <c r="C122" s="17">
         <v>1240</v>
       </c>
       <c r="D122" s="1"/>
-      <c r="G122" s="20" t="s">
+      <c r="G122" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16">
       <c r="A123" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B123" s="21" t="s">
+      <c r="B123" s="19" t="s">
         <v>282</v>
       </c>
       <c r="C123" s="1">
@@ -3243,8 +3400,11 @@
       <c r="G123" s="5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" s="31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="13">
       <c r="F124" s="1" t="s">
         <v>286</v>
       </c>
@@ -3252,7 +3412,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8" ht="13">
       <c r="F125" s="1" t="s">
         <v>288</v>
       </c>
@@ -3260,7 +3420,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:8" ht="13">
       <c r="F126" s="1" t="s">
         <v>290</v>
       </c>
@@ -3268,11 +3428,11 @@
         <v>291</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8" ht="16">
       <c r="A127" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B127" s="22" t="s">
+      <c r="B127" s="20" t="s">
         <v>293</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -3284,8 +3444,11 @@
       <c r="G127" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="13">
       <c r="F128" s="1">
         <v>8</v>
       </c>
@@ -3293,7 +3456,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8" ht="13">
       <c r="F129" s="1">
         <v>9</v>
       </c>
@@ -3301,7 +3464,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8" ht="13">
       <c r="F130" s="1">
         <v>10</v>
       </c>
@@ -3309,11 +3472,11 @@
         <v>298</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B131" s="17" t="s">
+      <c r="B131" s="16" t="s">
         <v>300</v>
       </c>
       <c r="C131" s="1">
@@ -3325,8 +3488,11 @@
       <c r="G131" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="13">
       <c r="F132" s="1">
         <v>15</v>
       </c>
@@ -3334,7 +3500,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8" ht="13">
       <c r="F133" s="1">
         <v>16</v>
       </c>
@@ -3342,7 +3508,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8" ht="13">
       <c r="F134" s="1">
         <v>17</v>
       </c>
@@ -3350,17 +3516,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8" ht="16">
       <c r="A135" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>41</v>
+        <v>469</v>
       </c>
       <c r="C135" s="1">
         <v>1300</v>
       </c>
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="21" t="s">
         <v>306</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -3372,8 +3538,11 @@
       <c r="G135" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="136" spans="1:7">
+      <c r="H135" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="13">
       <c r="F136" s="1" t="s">
         <v>155</v>
       </c>
@@ -3381,7 +3550,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8" ht="13">
       <c r="F137" s="1" t="s">
         <v>151</v>
       </c>
@@ -3389,7 +3558,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8" ht="13">
       <c r="F138" s="1" t="s">
         <v>310</v>
       </c>
@@ -3397,11 +3566,11 @@
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8" ht="16">
       <c r="A139" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="B139" s="22" t="s">
         <v>313</v>
       </c>
       <c r="C139" s="1">
@@ -3413,15 +3582,18 @@
       <c r="F139" s="1">
         <v>309</v>
       </c>
-      <c r="G139" s="25" t="s">
+      <c r="G139" s="23" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H139" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
-      <c r="B140" s="17"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="17"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1">
         <v>306</v>
@@ -3430,11 +3602,11 @@
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
-      <c r="B141" s="17"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="17"/>
+      <c r="D141" s="16"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1">
         <v>307</v>
@@ -3443,11 +3615,11 @@
         <v>316</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
-      <c r="B142" s="17"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="17"/>
+      <c r="D142" s="16"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1">
         <v>308</v>
@@ -3456,17 +3628,17 @@
         <v>317</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B143" s="16" t="s">
         <v>319</v>
       </c>
       <c r="C143" s="1">
         <v>1296</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="16" t="s">
         <v>320</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -3475,12 +3647,15 @@
       <c r="G143" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H143" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="16" t="s">
         <v>323</v>
       </c>
       <c r="C144" s="1">
@@ -3492,49 +3667,58 @@
       <c r="G144" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H144" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="D145" s="26" t="s">
+      <c r="D145" s="24" t="s">
         <v>327</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G145" s="20" t="s">
+      <c r="G145" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H145" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>330</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G146" s="20" t="s">
+      <c r="G146" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="H146" s="29" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16">
       <c r="A147" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="32" t="s">
         <v>332</v>
       </c>
       <c r="C147" s="1">
@@ -3543,15 +3727,18 @@
       <c r="E147" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G147" s="20" t="s">
+      <c r="G147" s="18" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="H147" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16">
       <c r="A148" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="20" t="s">
         <v>334</v>
       </c>
       <c r="C148" s="1">
@@ -3569,8 +3756,11 @@
       <c r="G148" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="H148" s="30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="13">
       <c r="F149" s="1" t="s">
         <v>231</v>
       </c>
@@ -3578,7 +3768,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8" ht="13">
       <c r="F150" s="1" t="s">
         <v>221</v>
       </c>
@@ -3586,7 +3776,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8" ht="13">
       <c r="F151" s="1" t="s">
         <v>198</v>
       </c>
@@ -3594,7 +3784,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8" ht="16">
       <c r="A152" s="10" t="s">
         <v>340</v>
       </c>
@@ -3613,8 +3803,11 @@
       <c r="G152" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="H152" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="13">
       <c r="F153" s="1" t="s">
         <v>114</v>
       </c>
@@ -3622,7 +3815,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8" ht="13">
       <c r="F154" s="1" t="s">
         <v>112</v>
       </c>
@@ -3630,7 +3823,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8" ht="13">
       <c r="F155" s="1" t="s">
         <v>108</v>
       </c>
@@ -3638,7 +3831,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8" ht="16">
       <c r="A156" s="2" t="s">
         <v>346</v>
       </c>
@@ -3657,16 +3850,19 @@
       <c r="G156" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16">
       <c r="F157" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G157" s="27" t="s">
+      <c r="G157" s="25" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8" ht="13">
       <c r="F158" s="1" t="s">
         <v>352</v>
       </c>
@@ -3674,7 +3870,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8" ht="13">
       <c r="F159" s="1" t="s">
         <v>354</v>
       </c>
@@ -3682,7 +3878,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8" ht="16">
       <c r="A160" s="6" t="s">
         <v>356</v>
       </c>
@@ -3701,8 +3897,11 @@
       <c r="G160" s="5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="H160" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="13">
       <c r="F161" s="1">
         <v>2</v>
       </c>
@@ -3710,7 +3909,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8" ht="13">
       <c r="F162" s="1">
         <v>3</v>
       </c>
@@ -3718,7 +3917,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8" ht="13">
       <c r="F163" s="1">
         <v>4</v>
       </c>
@@ -3726,7 +3925,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8" ht="16">
       <c r="A164" s="2" t="s">
         <v>363</v>
       </c>
@@ -3742,8 +3941,11 @@
       <c r="G164" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" s="29" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="13">
       <c r="F165" s="1">
         <v>2</v>
       </c>
@@ -3751,7 +3953,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8" ht="13">
       <c r="F166" s="1">
         <v>3</v>
       </c>
@@ -3759,7 +3961,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8" ht="13">
       <c r="F167" s="1">
         <v>4</v>
       </c>
@@ -3767,7 +3969,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8" ht="16">
       <c r="A168" s="2" t="s">
         <v>370</v>
       </c>
@@ -3783,8 +3985,11 @@
       <c r="G168" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="H168" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="13">
       <c r="F169" s="1">
         <v>6</v>
       </c>
@@ -3792,7 +3997,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:8" ht="13">
       <c r="F170" s="1">
         <v>7</v>
       </c>
@@ -3800,7 +4005,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8" ht="13">
       <c r="F171" s="1">
         <v>8</v>
       </c>
@@ -3808,8 +4013,8 @@
         <v>376</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="15" t="s">
+    <row r="172" spans="1:8" ht="16">
+      <c r="A172" s="14" t="s">
         <v>377</v>
       </c>
       <c r="B172" s="7"/>
@@ -3820,7 +4025,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8" ht="16">
       <c r="A173" s="2" t="s">
         <v>378</v>
       </c>
@@ -3839,16 +4044,19 @@
       <c r="G173" s="5" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="F174" s="20" t="s">
+      <c r="H173" s="30" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="13">
+      <c r="F174" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="G174" s="28" t="s">
+      <c r="G174" s="26" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8" ht="13">
       <c r="F175" s="1" t="s">
         <v>384</v>
       </c>
@@ -3856,15 +4064,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8" ht="13">
       <c r="F176" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G176" s="25" t="s">
+      <c r="G176" s="23" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8" ht="16">
       <c r="A177" s="2" t="s">
         <v>388</v>
       </c>
@@ -3880,8 +4088,11 @@
       <c r="G177" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="13">
       <c r="F178" s="1">
         <v>23</v>
       </c>
@@ -3889,7 +4100,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8" ht="13">
       <c r="F179" s="1">
         <v>32</v>
       </c>
@@ -3897,7 +4108,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8" ht="13">
       <c r="F180" s="1">
         <v>66</v>
       </c>
@@ -3905,7 +4116,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8" ht="16">
       <c r="A181" s="2" t="s">
         <v>394</v>
       </c>
@@ -3918,8 +4129,11 @@
       <c r="G181" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="16">
       <c r="A182" s="2" t="s">
         <v>397</v>
       </c>
@@ -3935,16 +4149,19 @@
       <c r="G182" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="13">
       <c r="F183" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="G183" s="25" t="s">
+      <c r="G183" s="23" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8" ht="13">
       <c r="F184" s="1" t="s">
         <v>404</v>
       </c>
@@ -3952,7 +4169,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:8" ht="13">
       <c r="F185" s="1" t="s">
         <v>406</v>
       </c>
@@ -3960,7 +4177,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:8" ht="16">
       <c r="A186" s="2" t="s">
         <v>408</v>
       </c>
@@ -3976,36 +4193,39 @@
       <c r="G186" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="13">
       <c r="F187" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="G187" s="25" t="s">
+      <c r="G187" s="23" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:8" ht="13">
       <c r="F188" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G188" s="25" t="s">
+      <c r="G188" s="23" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:8" ht="13">
       <c r="F189" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="G189" s="25" t="s">
+      <c r="G189" s="23" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:8" ht="16">
       <c r="A190" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B190" s="29" t="s">
+      <c r="B190" s="27" t="s">
         <v>419</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -4017,8 +4237,11 @@
       <c r="G190" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" s="29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="13">
       <c r="F191" s="1" t="s">
         <v>423</v>
       </c>
@@ -4026,7 +4249,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8" ht="13">
       <c r="F192" s="1" t="s">
         <v>425</v>
       </c>
@@ -4034,7 +4257,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8" ht="13">
       <c r="F193" s="1" t="s">
         <v>427</v>
       </c>
@@ -4042,7 +4265,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:8" ht="16">
       <c r="A194" s="2" t="s">
         <v>429</v>
       </c>
@@ -4058,16 +4281,19 @@
       <c r="G194" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="H194" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="13">
       <c r="F195" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G195" s="25" t="s">
+      <c r="G195" s="23" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:8" ht="13">
       <c r="F196" s="1" t="s">
         <v>435</v>
       </c>
@@ -4075,7 +4301,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8" ht="13">
       <c r="F197" s="1" t="s">
         <v>437</v>
       </c>
@@ -4083,11 +4309,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8" ht="16">
       <c r="A198" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="12" t="s">
         <v>440</v>
       </c>
       <c r="C198" s="1">
@@ -4102,8 +4328,11 @@
       <c r="G198" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="H198" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="13">
       <c r="F199" s="1" t="s">
         <v>444</v>
       </c>
@@ -4111,7 +4340,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:8" ht="13">
       <c r="F200" s="1" t="s">
         <v>446</v>
       </c>
@@ -4119,7 +4348,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:8" ht="13">
       <c r="F201" s="1" t="s">
         <v>448</v>
       </c>
@@ -4127,11 +4356,11 @@
         <v>449</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8" ht="16">
       <c r="A202" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C202" s="1">
@@ -4143,39 +4372,42 @@
       <c r="F202" s="1">
         <v>146</v>
       </c>
-      <c r="G202" s="25" t="s">
+      <c r="G202" s="23" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="H202" s="29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="16">
       <c r="A203" s="10"/>
-      <c r="B203" s="13"/>
+      <c r="B203" s="12"/>
       <c r="F203" s="1">
         <v>193</v>
       </c>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:8" ht="16">
       <c r="A204" s="10"/>
-      <c r="B204" s="13"/>
+      <c r="B204" s="12"/>
       <c r="F204" s="1">
         <v>197</v>
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8" ht="16">
       <c r="A205" s="10"/>
-      <c r="B205" s="13"/>
+      <c r="B205" s="12"/>
       <c r="F205" s="1">
         <v>209</v>
       </c>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8" ht="16">
       <c r="A206" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="12" t="s">
         <v>455</v>
       </c>
       <c r="F206" s="1" t="s">
@@ -4184,23 +4416,26 @@
       <c r="G206" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="207" spans="1:7">
+      <c r="H206" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="13">
       <c r="F207" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8" ht="13">
       <c r="F208" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8" ht="13">
       <c r="F209" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:8" ht="16">
       <c r="A210" s="2" t="s">
         <v>457</v>
       </c>
@@ -4222,18 +4457,21 @@
       <c r="G210" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="211" spans="1:7">
+      <c r="H210" s="30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="13">
       <c r="F211" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:8" ht="13">
       <c r="F212" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8" ht="16">
       <c r="A213" s="6"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4243,208 +4481,211 @@
       </c>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="30" t="s">
+    <row r="214" spans="1:8" ht="16">
+      <c r="A214" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="B214" s="30" t="s">
+      <c r="B214" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="C214" s="19">
+      <c r="C214" s="17">
         <v>1284</v>
       </c>
-      <c r="D214" s="20" t="s">
+      <c r="D214" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="E214" s="20" t="s">
+      <c r="E214" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G214" s="20" t="s">
+      <c r="G214" s="18" t="s">
         <v>464</v>
+      </c>
+      <c r="H214" s="33" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460384]]"/>
-    <hyperlink ref="G7" r:id="rId2" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460385]]"/>
-    <hyperlink ref="G8" r:id="rId3" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460442]]"/>
-    <hyperlink ref="G9" r:id="rId4" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460548]]"/>
-    <hyperlink ref="G15" r:id="rId5"/>
-    <hyperlink ref="G18" r:id="rId6"/>
-    <hyperlink ref="G19" r:id="rId7"/>
-    <hyperlink ref="G20" r:id="rId8"/>
-    <hyperlink ref="G21" r:id="rId9"/>
-    <hyperlink ref="G22" r:id="rId10"/>
-    <hyperlink ref="G23" r:id="rId11"/>
-    <hyperlink ref="G24" r:id="rId12"/>
-    <hyperlink ref="G25" r:id="rId13"/>
-    <hyperlink ref="G26" r:id="rId14"/>
-    <hyperlink ref="G27" r:id="rId15"/>
-    <hyperlink ref="G28" r:id="rId16"/>
-    <hyperlink ref="G29" r:id="rId17"/>
-    <hyperlink ref="G30" r:id="rId18"/>
-    <hyperlink ref="G31" r:id="rId19"/>
-    <hyperlink ref="G32" r:id="rId20"/>
-    <hyperlink ref="G33" r:id="rId21"/>
-    <hyperlink ref="G34" r:id="rId22"/>
-    <hyperlink ref="G35" r:id="rId23"/>
-    <hyperlink ref="G36" r:id="rId24"/>
-    <hyperlink ref="G37" r:id="rId25"/>
-    <hyperlink ref="G38" r:id="rId26"/>
-    <hyperlink ref="G39" r:id="rId27"/>
-    <hyperlink ref="G40" r:id="rId28"/>
-    <hyperlink ref="G41" r:id="rId29"/>
-    <hyperlink ref="G42" r:id="rId30"/>
-    <hyperlink ref="G43" r:id="rId31"/>
-    <hyperlink ref="G44" r:id="rId32"/>
-    <hyperlink ref="G45" r:id="rId33"/>
-    <hyperlink ref="G46" r:id="rId34"/>
-    <hyperlink ref="G47" r:id="rId35"/>
-    <hyperlink ref="G48" r:id="rId36"/>
-    <hyperlink ref="G49" r:id="rId37"/>
-    <hyperlink ref="G50" r:id="rId38"/>
-    <hyperlink ref="G51" r:id="rId39"/>
-    <hyperlink ref="G52" r:id="rId40"/>
-    <hyperlink ref="G53" r:id="rId41"/>
-    <hyperlink ref="G54" r:id="rId42"/>
-    <hyperlink ref="G55" r:id="rId43"/>
-    <hyperlink ref="G56" r:id="rId44"/>
-    <hyperlink ref="G57" r:id="rId45"/>
-    <hyperlink ref="G58" r:id="rId46"/>
-    <hyperlink ref="G59" r:id="rId47"/>
-    <hyperlink ref="G60" r:id="rId48"/>
-    <hyperlink ref="G61" r:id="rId49"/>
-    <hyperlink ref="G62" r:id="rId50"/>
-    <hyperlink ref="G63" r:id="rId51"/>
-    <hyperlink ref="G64" r:id="rId52"/>
-    <hyperlink ref="G65" r:id="rId53"/>
-    <hyperlink ref="G66" r:id="rId54"/>
-    <hyperlink ref="G67" r:id="rId55"/>
-    <hyperlink ref="G68" r:id="rId56"/>
-    <hyperlink ref="G69" r:id="rId57"/>
-    <hyperlink ref="G70" r:id="rId58"/>
-    <hyperlink ref="G71" r:id="rId59"/>
-    <hyperlink ref="G72" r:id="rId60"/>
-    <hyperlink ref="G73" r:id="rId61"/>
-    <hyperlink ref="G74" r:id="rId62"/>
-    <hyperlink ref="G75" r:id="rId63"/>
-    <hyperlink ref="G76" r:id="rId64"/>
-    <hyperlink ref="G77" r:id="rId65"/>
-    <hyperlink ref="G78" r:id="rId66"/>
-    <hyperlink ref="G79" r:id="rId67"/>
-    <hyperlink ref="G80" r:id="rId68"/>
-    <hyperlink ref="G81" r:id="rId69"/>
-    <hyperlink ref="G82" r:id="rId70"/>
-    <hyperlink ref="G83" r:id="rId71"/>
-    <hyperlink ref="G84" r:id="rId72"/>
-    <hyperlink ref="G85" r:id="rId73"/>
-    <hyperlink ref="G86" r:id="rId74"/>
-    <hyperlink ref="G87" r:id="rId75"/>
-    <hyperlink ref="G88" r:id="rId76"/>
-    <hyperlink ref="G89" r:id="rId77"/>
-    <hyperlink ref="G90" r:id="rId78"/>
-    <hyperlink ref="G91" r:id="rId79"/>
-    <hyperlink ref="G92" r:id="rId80"/>
-    <hyperlink ref="G93" r:id="rId81"/>
-    <hyperlink ref="G94" r:id="rId82"/>
-    <hyperlink ref="G95" r:id="rId83"/>
-    <hyperlink ref="G96" r:id="rId84"/>
-    <hyperlink ref="G97" r:id="rId85"/>
-    <hyperlink ref="G98" r:id="rId86"/>
-    <hyperlink ref="G99" r:id="rId87"/>
-    <hyperlink ref="G100" r:id="rId88"/>
-    <hyperlink ref="G101" r:id="rId89"/>
-    <hyperlink ref="G104" r:id="rId90"/>
-    <hyperlink ref="G105" r:id="rId91"/>
-    <hyperlink ref="G106" r:id="rId92"/>
-    <hyperlink ref="G107" r:id="rId93"/>
-    <hyperlink ref="G108" r:id="rId94" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442639]]"/>
-    <hyperlink ref="G109" r:id="rId95" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442638]]"/>
-    <hyperlink ref="G110" r:id="rId96" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442638]]"/>
-    <hyperlink ref="G111" r:id="rId97" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442738]]"/>
-    <hyperlink ref="G112" r:id="rId98" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48276986]]"/>
-    <hyperlink ref="G113" r:id="rId99" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48276991]]"/>
-    <hyperlink ref="G114" r:id="rId100" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48276997]]"/>
-    <hyperlink ref="G115" r:id="rId101" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48277003]]"/>
-    <hyperlink ref="G116" r:id="rId102"/>
-    <hyperlink ref="G117" r:id="rId103"/>
-    <hyperlink ref="G118" r:id="rId104"/>
-    <hyperlink ref="G119" r:id="rId105"/>
-    <hyperlink ref="G123" r:id="rId106" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943073]]"/>
-    <hyperlink ref="G124" r:id="rId107" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943074]]"/>
-    <hyperlink ref="G125" r:id="rId108" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943075]]"/>
-    <hyperlink ref="G126" r:id="rId109" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943611]]"/>
-    <hyperlink ref="G127" r:id="rId110"/>
-    <hyperlink ref="G128" r:id="rId111"/>
-    <hyperlink ref="G129" r:id="rId112"/>
-    <hyperlink ref="G130" r:id="rId113"/>
-    <hyperlink ref="G131" r:id="rId114" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769309]]"/>
-    <hyperlink ref="G132" r:id="rId115" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769310]]"/>
-    <hyperlink ref="G133" r:id="rId116" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769311]]"/>
-    <hyperlink ref="G134" r:id="rId117" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769312]]"/>
-    <hyperlink ref="G135" r:id="rId118"/>
-    <hyperlink ref="G136" r:id="rId119"/>
-    <hyperlink ref="G137" r:id="rId120"/>
-    <hyperlink ref="G138" r:id="rId121"/>
-    <hyperlink ref="G139" r:id="rId122"/>
-    <hyperlink ref="G140" r:id="rId123"/>
-    <hyperlink ref="G141" r:id="rId124"/>
-    <hyperlink ref="G142" r:id="rId125"/>
-    <hyperlink ref="G148" r:id="rId126"/>
-    <hyperlink ref="G149" r:id="rId127"/>
-    <hyperlink ref="G150" r:id="rId128"/>
-    <hyperlink ref="G151" r:id="rId129"/>
-    <hyperlink ref="G152" r:id="rId130"/>
-    <hyperlink ref="G153" r:id="rId131"/>
-    <hyperlink ref="G154" r:id="rId132"/>
-    <hyperlink ref="G155" r:id="rId133"/>
-    <hyperlink ref="G156" r:id="rId134"/>
-    <hyperlink ref="G157" r:id="rId135"/>
-    <hyperlink ref="G158" r:id="rId136"/>
-    <hyperlink ref="G159" r:id="rId137"/>
-    <hyperlink ref="G160" r:id="rId138"/>
-    <hyperlink ref="G161" r:id="rId139"/>
-    <hyperlink ref="G162" r:id="rId140"/>
-    <hyperlink ref="G163" r:id="rId141"/>
-    <hyperlink ref="G164" r:id="rId142"/>
-    <hyperlink ref="G165" r:id="rId143"/>
-    <hyperlink ref="G166" r:id="rId144"/>
-    <hyperlink ref="G167" r:id="rId145"/>
-    <hyperlink ref="G168" r:id="rId146"/>
-    <hyperlink ref="G169" r:id="rId147"/>
-    <hyperlink ref="G170" r:id="rId148"/>
-    <hyperlink ref="G171" r:id="rId149"/>
-    <hyperlink ref="G173" r:id="rId150"/>
-    <hyperlink ref="G174" r:id="rId151"/>
-    <hyperlink ref="G175" r:id="rId152"/>
-    <hyperlink ref="G176" r:id="rId153"/>
-    <hyperlink ref="G177" r:id="rId154" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822146]]"/>
-    <hyperlink ref="G178" r:id="rId155" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822227]]"/>
-    <hyperlink ref="G179" r:id="rId156" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822061]]"/>
-    <hyperlink ref="G180" r:id="rId157" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822187]]"/>
-    <hyperlink ref="G182" r:id="rId158" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940557]]"/>
-    <hyperlink ref="G183" r:id="rId159" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940568]]"/>
-    <hyperlink ref="G184" r:id="rId160" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940717]]"/>
-    <hyperlink ref="G185" r:id="rId161" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940405]]"/>
-    <hyperlink ref="G186" r:id="rId162" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133815]]"/>
-    <hyperlink ref="G187" r:id="rId163" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133862]]"/>
-    <hyperlink ref="G188" r:id="rId164" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133861]]"/>
-    <hyperlink ref="G189" r:id="rId165" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133823]]"/>
-    <hyperlink ref="G190" r:id="rId166" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117134]]"/>
-    <hyperlink ref="G191" r:id="rId167" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117057]]"/>
-    <hyperlink ref="G192" r:id="rId168" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117713]]"/>
-    <hyperlink ref="G193" r:id="rId169" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117069]]"/>
-    <hyperlink ref="G194" r:id="rId170" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22949894]]"/>
-    <hyperlink ref="G195" r:id="rId171" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22949849]]"/>
-    <hyperlink ref="G196" r:id="rId172" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22949980]]"/>
-    <hyperlink ref="G197" r:id="rId173" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22950162]]"/>
-    <hyperlink ref="G198" r:id="rId174"/>
-    <hyperlink ref="G199" r:id="rId175"/>
-    <hyperlink ref="G200" r:id="rId176"/>
-    <hyperlink ref="G201" r:id="rId177"/>
-    <hyperlink ref="G202" r:id="rId178"/>
-    <hyperlink ref="G206" r:id="rId179"/>
-    <hyperlink ref="G210" r:id="rId180"/>
+    <hyperlink ref="G6" r:id="rId1" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460384]]" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId2" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460385]]" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G8" r:id="rId3" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460442]]" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G9" r:id="rId4" location="d=[[PNX_MANUSCRIPTS990001204550205171-1,FL37460548]]" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G25" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G26" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="G28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G30" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G31" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="G32" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G33" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G34" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G35" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G36" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G37" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G38" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G39" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G40" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G41" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G42" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G43" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G44" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G45" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G46" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G47" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G48" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G49" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G50" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G51" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G52" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G54" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G55" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G56" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G57" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G58" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G59" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G60" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G61" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G62" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G63" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G64" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G65" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G66" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G67" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G68" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G69" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G70" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G71" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G72" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G73" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G74" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G75" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G76" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G77" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G78" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G79" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G80" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G81" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G82" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G83" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G84" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G85" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G86" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G87" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G88" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G89" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G90" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G91" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G92" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G93" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G94" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G95" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G96" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G97" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G98" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G99" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G100" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="G104" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G105" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="G106" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G107" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="G108" r:id="rId94" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442639]]" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="G109" r:id="rId95" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442638]]" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G110" r:id="rId96" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442638]]" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="G111" r:id="rId97" location="d=[[PNX_MANUSCRIPTS990000800110205171-1,FL50442738]]" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G112" r:id="rId98" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48276986]]" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="G113" r:id="rId99" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48276991]]" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="G114" r:id="rId100" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48276997]]" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G115" r:id="rId101" location="d=[[PNX_MANUSCRIPTS990001264630205171-2,FL48277003]]" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="G116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="G118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="G119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="G123" r:id="rId106" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943073]]" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G124" r:id="rId107" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943074]]" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="G125" r:id="rId108" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943075]]" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="G126" r:id="rId109" location="d=[[PNX_MANUSCRIPTS990001517870205171-1,FL49943611]]" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="G127" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G128" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="G129" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="G130" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="G131" r:id="rId114" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769309]]" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="G132" r:id="rId115" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769310]]" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="G133" r:id="rId116" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769311]]" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="G134" r:id="rId117" location="d=[[PNX_MANUSCRIPTS990001978950205171-1,FL50769312]]" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G135" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="G136" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="G137" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G138" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G139" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="G140" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="G141" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="G142" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="G148" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="G149" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G150" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="G151" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G152" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="G153" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="G154" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="G155" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G156" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="G157" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="G158" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="G159" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="G160" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="G161" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G162" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="G163" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="G164" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G165" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="G166" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="G167" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="G168" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="G169" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="G170" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="G171" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="G173" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="G174" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="G175" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="G176" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="G177" r:id="rId154" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822146]]" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="G178" r:id="rId155" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822227]]" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="G179" r:id="rId156" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822061]]" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="G180" r:id="rId157" location="d=[[PNX_MANUSCRIPTS990025709670205171-1,FL14822187]]" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="G182" r:id="rId158" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940557]]" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="G183" r:id="rId159" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940568]]" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="G184" r:id="rId160" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940717]]" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="G185" r:id="rId161" location="d=[[PNX_MANUSCRIPTS990000841690205171-1,FL13940405]]" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="G186" r:id="rId162" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133815]]" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="G187" r:id="rId163" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133862]]" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="G188" r:id="rId164" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133861]]" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="G189" r:id="rId165" location="d=[[PNX_MANUSCRIPTS990000830080205171-1,FL21133823]]" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="G190" r:id="rId166" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117134]]" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="G191" r:id="rId167" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117057]]" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="G192" r:id="rId168" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117713]]" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G193" r:id="rId169" location="d=[[PNX_MANUSCRIPTS990000690070205171-1,FL21117069]]" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="G194" r:id="rId170" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22949894]]" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="G195" r:id="rId171" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22949849]]" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="G196" r:id="rId172" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22949980]]" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="G197" r:id="rId173" location="d=[[PNX_MANUSCRIPTS990000728040205171-1,FL22950162]]" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="G198" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="G199" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="G200" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="G201" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="G202" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="G206" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="G210" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
